--- a/biology/Zoologie/Alethinophidia/Alethinophidia.xlsx
+++ b/biology/Zoologie/Alethinophidia/Alethinophidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alethinophidia sont un infra-ordre de serpents.
 </t>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils regroupe toutes les familles de serpents autres que les serpents aveugles qui forment l'infra-ordre des scolécophidiens.
-Liste des familles actuelles
-Selon The Reptile Database (février 2017):
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alethinophidia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alethinophidia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des familles actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database (février 2017):
 Aniliidae Stejneger, 1907
 Bolyeriidae Hoffstetter, 1946
 Tropidophiidae Brongersma, 1951
@@ -567,37 +616,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Alethinophidia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alethinophidia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Phylogénie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles actuelles de serpents, d'après Wiens et al., 2012[1] et Zeng et Wiens, 2016[2] :
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -619,10 +637,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles actuelles de serpents, d'après Wiens et al., 2012 et Zeng et Wiens, 2016 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alethinophidia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alethinophidia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nopcsa, 1923 : Die Familien der Reptilien. Fortschritte der Geologie und Paläontologie, vol. 2, p. 1-210.</t>
         </is>
